--- a/big-data/pamap2/src/test/resources/size_res.xlsx
+++ b/big-data/pamap2/src/test/resources/size_res.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ELETCH-MASTERS-DEGREE\Big Data\eltech-masters-degree\big-data\pamap2\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126CC358-779D-4741-8771-30C14EFDBE0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2F4C4E-8E98-45EE-B26F-C50A18151C79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{F09A1A69-85EF-4201-9A2E-CE2CEDABAAAA}"/>
+    <workbookView xWindow="5025" yWindow="2625" windowWidth="21600" windowHeight="11385" xr2:uid="{F09A1A69-85EF-4201-9A2E-CE2CEDABAAAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="size_res_1" localSheetId="0">Лист1!$A$1:$G$5</definedName>
+    <definedName name="size_res" localSheetId="0">Лист1!$A$1:$G$5</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{77AC5E6E-AC48-4547-AA45-523E1725788D}" name="size_res" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{007D0566-ADB6-44D4-90B0-03A00527FC0A}" name="size_res" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="D:\ELETCH-MASTERS-DEGREE\Big Data\eltech-masters-degree\big-data\pamap2\src\test\resources\size_res.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="7">
         <textField/>
@@ -296,16 +296,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>433.384677724178</c:v>
+                    <c:v>236.29981654411</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>432.66384383994802</c:v>
+                    <c:v>225.322758358366</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>410.71165813474897</c:v>
+                    <c:v>224.15997360512699</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>383.65778447768201</c:v>
+                    <c:v>253.11611421435401</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -317,16 +317,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>433.384677724178</c:v>
+                    <c:v>236.29981654411</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>432.66384383994802</c:v>
+                    <c:v>225.322758358366</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>410.71165813474897</c:v>
+                    <c:v>224.15997360512699</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>383.65778447768201</c:v>
+                    <c:v>253.11611421435401</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -370,16 +370,16 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3157.2519587749998</c:v>
+                  <c:v>3249.0484688000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3195.8146615249998</c:v>
+                  <c:v>3160.7810193874998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3192.1618893499999</c:v>
+                  <c:v>3184.7359228374999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3139.6835564749999</c:v>
+                  <c:v>3153.6285027125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1232,8 +1232,8 @@
       <xdr:rowOff>180414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>66114</xdr:rowOff>
     </xdr:to>
@@ -1264,7 +1264,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="size_res_1" connectionId="1" xr16:uid="{B3FCE60E-3B10-40BE-AA62-C61DFE2E04EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="size_res" connectionId="1" xr16:uid="{4D8FAABF-EB11-4467-A59D-38519D9DF401}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1567,12 +1567,12 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" customWidth="1"/>
+    <col min="1" max="1" width="50.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1619,16 +1619,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="8">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
       </c>
       <c r="E2" s="5">
-        <v>3157.2519587749998</v>
+        <v>3249.0484688000001</v>
       </c>
       <c r="F2" s="5">
-        <v>433.384677724178</v>
+        <v>236.29981654411</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>8</v>
@@ -1647,16 +1647,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="9">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D3" s="9">
         <v>1</v>
       </c>
       <c r="E3" s="6">
-        <v>3195.8146615249998</v>
+        <v>3160.7810193874998</v>
       </c>
       <c r="F3" s="6">
-        <v>432.66384383994802</v>
+        <v>225.322758358366</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>8</v>
@@ -1675,16 +1675,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="9">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D4" s="9">
         <v>1</v>
       </c>
       <c r="E4" s="6">
-        <v>3192.1618893499999</v>
+        <v>3184.7359228374999</v>
       </c>
       <c r="F4" s="6">
-        <v>410.71165813474897</v>
+        <v>224.15997360512699</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>8</v>
@@ -1703,16 +1703,16 @@
         <v>7</v>
       </c>
       <c r="C5" s="10">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
       </c>
       <c r="E5" s="7">
-        <v>3139.6835564749999</v>
+        <v>3153.6285027125</v>
       </c>
       <c r="F5" s="7">
-        <v>383.65778447768201</v>
+        <v>253.11611421435401</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>8</v>
